--- a/trending_videos.xlsx
+++ b/trending_videos.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-20" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-21" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-22" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-26" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3191,6 +3192,2572 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Channel</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Subscribers</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Views</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>Date Pulled</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NBA YOUNGBOY: MILLION DOLLAZ WORTH OF GAME EPISODE 252</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MILLION DOLLAZ WORTH OF GAME</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1450000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1266730</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-12-25 00:30:07</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>44883</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yailin La Mas Viral - Bad Bxtch (Video Oficial)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yailin La Mas Viral</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1090000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2128069</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-12-24 22:50:46</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100511</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>12474</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I Rescued 100 Abandoned Dogs!</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MrBeast</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>222000000</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>57441927</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-12-23 17:00:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3538577</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>71757</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Have a Bootleg Gaming Christmas! - Scott The Woz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Scott The Woz</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1880000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>519916</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-12-25 03:00:07</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>46420</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2318</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>🔥 Cozy Fireplace 4K (12 HOURS). Fireplace with Crackling Fire Sounds. Crackling Fireplace 4K</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FOBOS PLANET</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>527109</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-12-25 12:26:10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LISA - My Only Wish (Britney Spears cover)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Lilifilm Official</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11500000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3956213</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023-12-24 23:02:58</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>687246</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>41714</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>We Built A School</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Beast Philanthropy</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20300000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4336874</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-12-24 12:00:28</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>442091</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10067</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>El Alfa “El Jefe” X Donaty X Fuerza Regida - TORETTO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ElAlfaElJefeTV</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9640000</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2643716</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-12-24 04:56:32</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>98545</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>6080</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Birth Story — Baby Seewald #5: Part 2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Jessa Seewald</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>261000</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>427174</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023-12-24 13:57:11</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>11380</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3 Days in Arctic with Bushcraft Hot Tent &amp; No Sleeping Bag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Outdoor Boys</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6230000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3808820</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2023-12-23 12:00:05</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>156935</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys vs. Miami Dolphins | 2023 Week 16 Game Highlights</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12300000</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1881549</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-12-25 00:46:21</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>20717</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Baldur's Gate 3: An Unexpected Adventure (feat. Elijah Wood &amp; Sean Astin)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Larian Studios</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>278000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1343392</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2023-12-24 11:00:23</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>90030</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3139</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HIGHLIGHTS! | MAN CITY 4-0 FLUMINENSE | FIFA Club World Cup | CITY ARE CLUB WORLD CUP CHAMPIONS!</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6900000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1917957</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-12-24 20:00:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>44298</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1315</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>skibidi toilet 69 (part 1)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DaFuq!?Boom!</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37100000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>27690198</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023-12-23 08:40:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1143159</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>70816</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Christmas Came Early! We Blew Her Mind!</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Roman Atwood Vlogs</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15400000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>331361</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2023-12-24 20:00:25</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>15555</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>I Built The Smallest Farms in Minecraft Hardcore</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>aCookieGod</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>746787</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-12-24 13:00:48</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>30817</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2094</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Savannahs Pregnant With Baby Number 5. (raw reaction)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The LaBrant Fam</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13000000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1075130</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2023-12-23 16:29:56</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>33413</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Making purple gold</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NileRed</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5700000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Science &amp; Technology</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5833073</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2023-12-22 19:14:34</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>315437</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>19349</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CONNOR BEDARD MICHIGAN GOAL 🤯😱🥍</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NHL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2020000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>565268</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-12-24 01:21:41</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>4803</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>The Crustacean Tier List</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TierZoo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3660000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1276886</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-12-23 17:35:58</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>78682</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>El Mimoso -Desde La Playa 3 - Grupo Firme - El Flaco El Yaki - Julio Preciado - Beto Guzman</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>El Mimoso</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1330000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1155618</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023-12-23 18:00:10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>15436</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>What The Prisoner's Dilemma Reveals About Life, The Universe, and Everything</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Veritasium</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14500000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2095944</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2023-12-23 17:00:08</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>122635</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WORST PRANK Ever Played On Me!!</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Let Me Explain Studios</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4350000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Film &amp; Animation</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>878109</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2023-12-23 17:00:11</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>76258</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>I Survived Impossible Food Records For a Week</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ErikTheElectric</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3260000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>705910</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-12-23 23:21:10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>40223</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Lucky Block Staff - Animation vs. Minecraft Shorts Ep 33</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Alan Becker</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25800000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Film &amp; Animation</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5981429</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2023-12-23 13:00:08</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>282734</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15824</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AMP SECRET SANTA 2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AMP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5090000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2213396</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2023-12-22 23:08:49</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>102624</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3143</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>🎄 Grey Grades Canada's Flags!  (And Merry Xmas!) 🎄</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CGP Grey</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6060000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>813911</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2023-12-23 17:51:57</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>63745</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The Worst Christmas Movie I've Ever Seen</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Kurtis Conner</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4740000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1790002</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2023-12-22 20:00:02</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>121033</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>"TIMING WAS OFF” 😳 | Deontay Wilder says he's not done and will be back soon after Parker defeat 🥊</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TNT Sports Boxing</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>856000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>430496</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2023-12-23 23:19:07</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>4157</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Birth Story — Baby Seewald #5!</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Jessa Seewald</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>261000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>515744</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2023-12-23 13:39:16</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>15995</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lil Mabu x Fivio Foreign - TEACH ME HOW TO DRILL (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lil Mabu</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2610000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5139102</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2023-12-21 21:00:06</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>314145</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>18617</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>JENNIE - 눈 (Snow) / Snowman Cover</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Jennierubyjane Official</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10200000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4744651</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2023-12-23 15:00:32</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>760924</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>44199</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>WILDER LOST EVERY ROUND! Conor McGregor reacts to Joseph Parker beating Deontay Wilder!</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>talkSPORT Boxing</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>596468</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2023-12-24 00:15:57</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>4059</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2338</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>The Evolution Of Willy Wonka (ANIMATED)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tell It Animated</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1910000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Film &amp; Animation</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>518566</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023-12-23 16:12:16</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>17802</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1488</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[TF2] A Mann's Guide to the Huntsman</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SoundSmith</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>664000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>460692</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2023-12-23 00:23:03</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>48657</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>I Hired a Professional Singer to fool my chat</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ludwig</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5560000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1274713</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2023-12-22 21:33:34</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>84653</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Anuel AA - Luces Tenues  (Video Oficial)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Anuel AA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26000000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8922085</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023-12-22 05:00:13</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>282705</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>19960</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>지민 (Jimin) 'Closer Than This' Official MV</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>HYBE LABELS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>73700000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7500759</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023-12-22 05:00:02</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1447598</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>113304</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ludwig - Con te partiró (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ludwin</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>844000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>592362</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2023-12-22 21:39:28</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>60087</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Watch gravity pull two metal balls together</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Steve Mould</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2600000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Science &amp; Technology</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2600254</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2023-12-22 16:00:08</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>59093</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>3715</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>can we build alphabet shaped apartments??</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CarynandConnieGaming</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>910000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>416409</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2023-12-22 16:00:38</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>35134</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TEN HAG TO BLAME! WEST HAM 2-0 MANCHESTER UNITED! GOLDBRIDGE Reaction</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The United Stand</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1800000</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>466971</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2023-12-23 15:07:27</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>9651</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>20 WOMEN VS 1 RAPPER: BOW WOW</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AveryB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>745000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>833712</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2023-12-21 21:40:52</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>24950</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2243</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Drake - You Broke My Heart</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DrakeVEVO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9160000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4166683</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2023-12-20 16:49:22</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>157535</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>8727</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Central Cee - Entrapreneur [Music Video]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Central Cee</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3320000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3003380</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2023-12-21 20:00:09</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>195894</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>7986</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>The Day Before We Found Out…</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ryland vlogs</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>522000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>519824</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023-12-21 19:11:42</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>23918</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Dianna Health Update from SmarterEveryDay</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Physics Girl</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3060000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Science &amp; Technology</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2125732</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2023-12-21 21:18:01</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>194543</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>10594</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>I built this YouTuber a Bionic Hand!</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Hacksmith Industries</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14300000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Science &amp; Technology</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2262565</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2023-12-21 20:58:34</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>95244</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2571</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>HIGHLIGHTS | CLUB AMERICA 3 vs 2 FC BARCELONA | DALLAS FRIENDLY</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16200000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>965646</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2023-12-22 04:18:33</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>21657</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Steve-O Is Extra Naughty For the Hot Ones Holiday Extravaganza | Hot Ones</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>First We Feast</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13000000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1049436</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2023-12-21 16:00:04</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>34704</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2023-12-26 09:00:10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
